--- a/data/outputs/OR_altmetric/15.xlsx
+++ b/data/outputs/OR_altmetric/15.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE51"/>
+  <dimension ref="A1:CF51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1031,6 +1036,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1282,6 +1290,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1535,6 +1546,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1782,6 +1796,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2035,6 +2052,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2285,6 +2305,9 @@
       </c>
       <c r="CE7" t="n">
         <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="8">
@@ -2527,6 +2550,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2780,6 +2806,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3037,6 +3066,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3294,6 +3326,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3541,6 +3576,9 @@
         <v>0</v>
       </c>
       <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3784,6 +3822,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4035,6 +4076,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4280,6 +4324,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4535,6 +4582,9 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4774,6 +4824,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5027,6 +5080,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5272,6 +5328,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5517,6 +5576,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5776,6 +5838,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6025,6 +6090,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6276,6 +6344,9 @@
         <v>0</v>
       </c>
       <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6519,6 +6590,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6772,6 +6846,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7029,6 +7106,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7286,6 +7366,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7549,6 +7632,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7800,6 +7886,9 @@
         <v>0</v>
       </c>
       <c r="CE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8043,6 +8132,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8292,6 +8384,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8546,6 +8641,9 @@
       </c>
       <c r="CE32" t="n">
         <v>0</v>
+      </c>
+      <c r="CF32" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="33">
@@ -8788,6 +8886,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9043,6 +9144,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9292,6 +9396,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9547,6 +9654,9 @@
         <v>0</v>
       </c>
       <c r="CE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9790,6 +9900,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10043,6 +10156,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10292,6 +10408,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10542,6 +10661,9 @@
       </c>
       <c r="CE40" t="n">
         <v>1</v>
+      </c>
+      <c r="CF40" t="n">
+        <v>13.25</v>
       </c>
     </row>
     <row r="41">
@@ -10784,6 +10906,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11033,6 +11158,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11290,6 +11418,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11539,6 +11670,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11794,6 +11928,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12047,6 +12184,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12302,6 +12442,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12547,6 +12690,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12800,6 +12946,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13051,6 +13200,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13300,6 +13452,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
